--- a/Poster/Livrable Modelisation - V2.xlsx
+++ b/Poster/Livrable Modelisation - V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetHDD\Ecole\Projet_CESI\2025-2026\Systèmes_automatisés\Poster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC04B4A-BA8B-45D3-91D9-91BF4C2994D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D85932-BF66-43BE-B58F-D6E3A00D38C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="690" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1328,15 +1328,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>29994</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>186446</xdr:rowOff>
+      <xdr:colOff>220494</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>55144</xdr:colOff>
+      <xdr:colOff>245644</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>45968</xdr:rowOff>
+      <xdr:rowOff>65018</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1351,7 +1351,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10908547" y="2091446"/>
+          <a:off x="11069469" y="2110496"/>
           <a:ext cx="25150" cy="3479022"/>
         </a:xfrm>
         <a:prstGeom prst="line">
